--- a/app/invoices/templates/default.xlsx
+++ b/app/invoices/templates/default.xlsx
@@ -83,7 +83,7 @@
         <color indexed="14"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>{{getattr(payee, "contact_person", None)</t>
+      <t>{{payee.contact_person if payee else None</t>
     </r>
     <r>
       <rPr>
@@ -159,7 +159,7 @@
     <t>Adress Line</t>
   </si>
   <si>
-    <t>{{getattr(payee, "address.address_1_eng", None)}}</t>
+    <t>{{payee.address.address_1_eng if payee else None}}</t>
   </si>
   <si>
     <r>
@@ -180,13 +180,13 @@
     </r>
   </si>
   <si>
-    <t>{{getattr(payee, "address.address_2_eng", None)}}</t>
+    <t>{{payee.address.address_2_eng if payee else None}}</t>
   </si>
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>{{getattr(payee, "address.city_eng", None)}}</t>
+    <t>{{payee.address.city_eng if payee else None}}</t>
   </si>
   <si>
     <t>Postal Code</t>
@@ -219,7 +219,7 @@
     <t>TEL</t>
   </si>
   <si>
-    <t>{{getattr(payee, "phone", None)}}</t>
+    <t>{{payee.phone if payee else None}}</t>
   </si>
   <si>
     <r>
@@ -6079,7 +6079,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" location="" tooltip="" display="reference_invoice.id"/>
+    <hyperlink ref="B7" r:id="rId1" location="" tooltip="" display="{{reference_invoice.id}}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811" footer="0.511811"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -9789,7 +9789,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" location="" tooltip="" display="reference_invoice.id"/>
+    <hyperlink ref="B7" r:id="rId1" location="" tooltip="" display="{{reference_invoice.id}}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811" footer="0.511811"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/app/invoices/templates/default.xlsx
+++ b/app/invoices/templates/default.xlsx
@@ -3405,11 +3405,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6016" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1719" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.9375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.71875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.9531" style="1" customWidth="1"/>
     <col min="7" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/app/invoices/templates/default.xlsx
+++ b/app/invoices/templates/default.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28409"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A8882E-AE41-4186-B0E1-08034ADAF2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2250852C-A3C7-41DD-80B7-38566DF2E602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invoice" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2170,9 +2170,6 @@
     <xf numFmtId="1" fontId="16" fillId="2" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2180,6 +2177,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3325,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F319"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:F13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="13.9" customHeight="1"/>
@@ -3459,11 +3462,11 @@
         <v>8</v>
       </c>
       <c r="C13" s="36"/>
-      <c r="D13" s="168" t="s">
+      <c r="D13" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="169"/>
-      <c r="F13" s="170"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="169"/>
     </row>
     <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="37"/>
@@ -6021,7 +6024,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I319"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
@@ -6191,10 +6196,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="36"/>
-      <c r="D13" s="167" t="s">
+      <c r="D13" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="156"/>
+      <c r="E13" s="171"/>
       <c r="F13" s="118"/>
       <c r="G13" s="148"/>
       <c r="H13" s="148"/>
